--- a/com/assets/test.xlsx
+++ b/com/assets/test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0506A01-9093-4507-864D-6E0358812B9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="255" windowWidth="27870" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,7 +199,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -273,6 +274,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -308,6 +326,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -483,11 +518,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -576,6 +611,20 @@
         <v>43805</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43805</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -584,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -673,11 +722,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/com/assets/test.xlsx
+++ b/com/assets/test.xlsx
@@ -3,21 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0506A01-9093-4507-864D-6E0358812B9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3386C6D3-20BE-41C4-866A-375A15E6E4D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="255" windowWidth="27870" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1815" yWindow="5760" windowWidth="27870" windowHeight="15945" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +134,86 @@
   </si>
   <si>
     <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否省会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月销量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月销量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月销量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三线城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二线城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
@@ -880,4 +962,245 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A17199-EF9F-44B9-9323-02139F71E37B}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC573526-87F5-4296-ACE0-18837F49645E}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>59224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>55295</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>46035</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2459</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>22179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>